--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp2-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp2-Acvr2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,16 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Bmp2</t>
+  </si>
+  <si>
+    <t>Acvr2b</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Bmp2</t>
-  </si>
-  <si>
-    <t>Acvr2b</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.580074666666667</v>
+        <v>16.65673</v>
       </c>
       <c r="H2">
-        <v>7.740224000000001</v>
+        <v>49.97019</v>
       </c>
       <c r="I2">
-        <v>0.3568173349568206</v>
+        <v>0.83267636245756</v>
       </c>
       <c r="J2">
-        <v>0.3568173349568206</v>
+        <v>0.8326763624575599</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.455462333333333</v>
+        <v>0.978762</v>
       </c>
       <c r="N2">
-        <v>4.366387</v>
+        <v>2.936286</v>
       </c>
       <c r="O2">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="P2">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="Q2">
-        <v>3.755201494520889</v>
+        <v>16.30297436826</v>
       </c>
       <c r="R2">
-        <v>33.796813450688</v>
+        <v>146.72676931434</v>
       </c>
       <c r="S2">
-        <v>0.1066911813604724</v>
+        <v>0.318037832385657</v>
       </c>
       <c r="T2">
-        <v>0.1066911813604724</v>
+        <v>0.318037832385657</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.580074666666667</v>
+        <v>16.65673</v>
       </c>
       <c r="H3">
-        <v>7.740224000000001</v>
+        <v>49.97019</v>
       </c>
       <c r="I3">
-        <v>0.3568173349568206</v>
+        <v>0.83267636245756</v>
       </c>
       <c r="J3">
-        <v>0.3568173349568206</v>
+        <v>0.8326763624575599</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.312473</v>
       </c>
       <c r="O3">
-        <v>0.02139798360848153</v>
+        <v>0.0406458950147437</v>
       </c>
       <c r="P3">
-        <v>0.02139798360848154</v>
+        <v>0.04064589501474371</v>
       </c>
       <c r="Q3">
-        <v>0.2687345571057778</v>
+        <v>1.734926131096667</v>
       </c>
       <c r="R3">
-        <v>2.418611013952</v>
+        <v>15.61433517987</v>
       </c>
       <c r="S3">
-        <v>0.007635171484628112</v>
+        <v>0.03384487600970866</v>
       </c>
       <c r="T3">
-        <v>0.007635171484628114</v>
+        <v>0.03384487600970866</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.580074666666667</v>
+        <v>16.65673</v>
       </c>
       <c r="H4">
-        <v>7.740224000000001</v>
+        <v>49.97019</v>
       </c>
       <c r="I4">
-        <v>0.3568173349568206</v>
+        <v>0.83267636245756</v>
       </c>
       <c r="J4">
-        <v>0.3568173349568206</v>
+        <v>0.8326763624575599</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.7055843333333334</v>
+        <v>0.3139526666666667</v>
       </c>
       <c r="N4">
-        <v>2.116753</v>
+        <v>0.9418580000000001</v>
       </c>
       <c r="O4">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="P4">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="Q4">
-        <v>1.820460263630223</v>
+        <v>5.229424801446667</v>
       </c>
       <c r="R4">
-        <v>16.384142372672</v>
+        <v>47.06482321302001</v>
       </c>
       <c r="S4">
-        <v>0.05172213965878976</v>
+        <v>0.1020154292650955</v>
       </c>
       <c r="T4">
-        <v>0.05172213965878977</v>
+        <v>0.1020154292650955</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.580074666666667</v>
+        <v>16.65673</v>
       </c>
       <c r="H5">
-        <v>7.740224000000001</v>
+        <v>49.97019</v>
       </c>
       <c r="I5">
-        <v>0.3568173349568206</v>
+        <v>0.83267636245756</v>
       </c>
       <c r="J5">
-        <v>0.3568173349568206</v>
+        <v>0.8326763624575599</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.409595</v>
+        <v>0.5829876666666666</v>
       </c>
       <c r="N5">
-        <v>4.228785</v>
+        <v>1.748963</v>
       </c>
       <c r="O5">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="P5">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="Q5">
-        <v>3.636860349760001</v>
+        <v>9.710668156996665</v>
       </c>
       <c r="R5">
-        <v>32.73174314784001</v>
+        <v>87.39601341296999</v>
       </c>
       <c r="S5">
-        <v>0.103328923288166</v>
+        <v>0.1894353620330975</v>
       </c>
       <c r="T5">
-        <v>0.103328923288166</v>
+        <v>0.1894353620330975</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,14 +776,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.580074666666667</v>
+        <v>16.65673</v>
       </c>
       <c r="H6">
-        <v>7.740224000000001</v>
+        <v>49.97019</v>
       </c>
       <c r="I6">
-        <v>0.3568173349568206</v>
+        <v>0.83267636245756</v>
       </c>
       <c r="J6">
-        <v>0.3568173349568206</v>
+        <v>0.8326763624575599</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,28 +809,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.245191</v>
+        <v>0.3019996666666667</v>
       </c>
       <c r="N6">
-        <v>0.735573</v>
+        <v>0.905999</v>
       </c>
       <c r="O6">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="P6">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="Q6">
-        <v>0.6326110875946668</v>
+        <v>5.030326907756667</v>
       </c>
       <c r="R6">
-        <v>5.693499788352002</v>
+        <v>45.27294216981</v>
       </c>
       <c r="S6">
-        <v>0.01797347609061377</v>
+        <v>0.09813143477970908</v>
       </c>
       <c r="T6">
-        <v>0.01797347609061377</v>
+        <v>0.09813143477970908</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.580074666666667</v>
+        <v>16.65673</v>
       </c>
       <c r="H7">
-        <v>7.740224000000001</v>
+        <v>49.97019</v>
       </c>
       <c r="I7">
-        <v>0.3568173349568206</v>
+        <v>0.83267636245756</v>
       </c>
       <c r="J7">
-        <v>0.3568173349568206</v>
+        <v>0.8326763624575599</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9476490000000001</v>
+        <v>0.2807033333333333</v>
       </c>
       <c r="N7">
-        <v>2.842947</v>
+        <v>0.8421099999999999</v>
       </c>
       <c r="O7">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449175</v>
       </c>
       <c r="P7">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449176</v>
       </c>
       <c r="Q7">
-        <v>2.445005177792</v>
+        <v>4.675599633433333</v>
       </c>
       <c r="R7">
-        <v>22.005046600128</v>
+        <v>42.0803967009</v>
       </c>
       <c r="S7">
-        <v>0.06946644307415054</v>
+        <v>0.09121142798429227</v>
       </c>
       <c r="T7">
-        <v>0.06946644307415054</v>
+        <v>0.09121142798429227</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>5.355062</v>
       </c>
       <c r="I8">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248338</v>
       </c>
       <c r="J8">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248335</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.455462333333333</v>
+        <v>0.978762</v>
       </c>
       <c r="N8">
-        <v>4.366387</v>
+        <v>2.936286</v>
       </c>
       <c r="O8">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="P8">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="Q8">
-        <v>2.598030344554889</v>
+        <v>1.747110397748</v>
       </c>
       <c r="R8">
-        <v>23.382273100994</v>
+        <v>15.723993579732</v>
       </c>
       <c r="S8">
-        <v>0.07381412876921571</v>
+        <v>0.03408256624140916</v>
       </c>
       <c r="T8">
-        <v>0.07381412876921573</v>
+        <v>0.03408256624140915</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>5.355062</v>
       </c>
       <c r="I9">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248338</v>
       </c>
       <c r="J9">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248335</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,10 +1001,10 @@
         <v>0.312473</v>
       </c>
       <c r="O9">
-        <v>0.02139798360848153</v>
+        <v>0.0406458950147437</v>
       </c>
       <c r="P9">
-        <v>0.02139798360848154</v>
+        <v>0.04064589501474371</v>
       </c>
       <c r="Q9">
         <v>0.1859235875917778</v>
@@ -1013,10 +1013,10 @@
         <v>1.673312288326</v>
       </c>
       <c r="S9">
-        <v>0.005282381579759913</v>
+        <v>0.003626990600081819</v>
       </c>
       <c r="T9">
-        <v>0.005282381579759914</v>
+        <v>0.003626990600081819</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,40 +1045,40 @@
         <v>5.355062</v>
       </c>
       <c r="I10">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248338</v>
       </c>
       <c r="J10">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248335</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.7055843333333334</v>
+        <v>0.3139526666666667</v>
       </c>
       <c r="N10">
-        <v>2.116753</v>
+        <v>0.9418580000000001</v>
       </c>
       <c r="O10">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="P10">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="Q10">
-        <v>1.259482617076222</v>
+        <v>0.5604119983551112</v>
       </c>
       <c r="R10">
-        <v>11.335343553686</v>
+        <v>5.043707985196001</v>
       </c>
       <c r="S10">
-        <v>0.03578388230695623</v>
+        <v>0.01093249692809255</v>
       </c>
       <c r="T10">
-        <v>0.03578388230695623</v>
+        <v>0.01093249692809254</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>5.355062</v>
       </c>
       <c r="I11">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248338</v>
       </c>
       <c r="J11">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248335</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.409595</v>
+        <v>0.5829876666666666</v>
       </c>
       <c r="N11">
-        <v>4.228785</v>
+        <v>1.748963</v>
       </c>
       <c r="O11">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="P11">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="Q11">
-        <v>2.51615620663</v>
+        <v>1.040645033411778</v>
       </c>
       <c r="R11">
-        <v>22.64540585967</v>
+        <v>9.365805300705999</v>
       </c>
       <c r="S11">
-        <v>0.07148795572342258</v>
+        <v>0.02030086554963436</v>
       </c>
       <c r="T11">
-        <v>0.07148795572342258</v>
+        <v>0.02030086554963436</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>5.355062</v>
       </c>
       <c r="I12">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248338</v>
       </c>
       <c r="J12">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248335</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.245191</v>
+        <v>0.3019996666666667</v>
       </c>
       <c r="N12">
-        <v>0.735573</v>
+        <v>0.905999</v>
       </c>
       <c r="O12">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="P12">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="Q12">
-        <v>0.4376710022806667</v>
+        <v>0.5390756463264444</v>
       </c>
       <c r="R12">
-        <v>3.939039020526</v>
+        <v>4.851680816938</v>
       </c>
       <c r="S12">
-        <v>0.0124349216276886</v>
+        <v>0.01051626814695519</v>
       </c>
       <c r="T12">
-        <v>0.0124349216276886</v>
+        <v>0.01051626814695518</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>5.355062</v>
       </c>
       <c r="I13">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248338</v>
       </c>
       <c r="J13">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248335</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.9476490000000001</v>
+        <v>0.2807033333333333</v>
       </c>
       <c r="N13">
-        <v>2.842947</v>
+        <v>0.8421099999999999</v>
       </c>
       <c r="O13">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449175</v>
       </c>
       <c r="P13">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449176</v>
       </c>
       <c r="Q13">
-        <v>1.691573049746</v>
+        <v>0.5010612512022222</v>
       </c>
       <c r="R13">
-        <v>15.224157447714</v>
+        <v>4.509551260819999</v>
       </c>
       <c r="S13">
-        <v>0.04806025117380927</v>
+        <v>0.009774684706310308</v>
       </c>
       <c r="T13">
-        <v>0.04806025117380927</v>
+        <v>0.009774684706310306</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.06561933333333334</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H14">
-        <v>0.196858</v>
+        <v>0.043031</v>
       </c>
       <c r="I14">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457053</v>
       </c>
       <c r="J14">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457052</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.455462333333333</v>
+        <v>0.978762</v>
       </c>
       <c r="N14">
-        <v>4.366387</v>
+        <v>2.936286</v>
       </c>
       <c r="O14">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="P14">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="Q14">
-        <v>0.0955064680051111</v>
+        <v>0.014039035874</v>
       </c>
       <c r="R14">
-        <v>0.8595582120459999</v>
+        <v>0.126351322866</v>
       </c>
       <c r="S14">
-        <v>0.002713488986915607</v>
+        <v>0.0002738730023917702</v>
       </c>
       <c r="T14">
-        <v>0.002713488986915608</v>
+        <v>0.0002738730023917701</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.06561933333333334</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H15">
-        <v>0.196858</v>
+        <v>0.043031</v>
       </c>
       <c r="I15">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457053</v>
       </c>
       <c r="J15">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457052</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,22 +1373,22 @@
         <v>0.312473</v>
       </c>
       <c r="O15">
-        <v>0.02139798360848153</v>
+        <v>0.0406458950147437</v>
       </c>
       <c r="P15">
-        <v>0.02139798360848154</v>
+        <v>0.04064589501474371</v>
       </c>
       <c r="Q15">
-        <v>0.006834756648222222</v>
+        <v>0.001494002851444444</v>
       </c>
       <c r="R15">
-        <v>0.061512809834</v>
+        <v>0.013446025663</v>
       </c>
       <c r="S15">
-        <v>0.0001941861873921118</v>
+        <v>2.914495341270012E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001941861873921118</v>
+        <v>2.914495341270012E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1411,46 +1411,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.06561933333333334</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H16">
-        <v>0.196858</v>
+        <v>0.043031</v>
       </c>
       <c r="I16">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457053</v>
       </c>
       <c r="J16">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457052</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.7055843333333334</v>
+        <v>0.3139526666666667</v>
       </c>
       <c r="N16">
-        <v>2.116753</v>
+        <v>0.9418580000000001</v>
       </c>
       <c r="O16">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="P16">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="Q16">
-        <v>0.04629997356377778</v>
+        <v>0.004503232399777778</v>
       </c>
       <c r="R16">
-        <v>0.4166997620740001</v>
+        <v>0.04052909159800001</v>
       </c>
       <c r="S16">
-        <v>0.001315455078425383</v>
+        <v>8.784889424487528E-05</v>
       </c>
       <c r="T16">
-        <v>0.001315455078425383</v>
+        <v>8.784889424487527E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.06561933333333334</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H17">
-        <v>0.196858</v>
+        <v>0.043031</v>
       </c>
       <c r="I17">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457053</v>
       </c>
       <c r="J17">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457052</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.409595</v>
+        <v>0.5829876666666666</v>
       </c>
       <c r="N17">
-        <v>4.228785</v>
+        <v>1.748963</v>
       </c>
       <c r="O17">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="P17">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="Q17">
-        <v>0.09249668417000001</v>
+        <v>0.008362180761444443</v>
       </c>
       <c r="R17">
-        <v>0.8324701575300001</v>
+        <v>0.07525962685299999</v>
       </c>
       <c r="S17">
-        <v>0.002627976293794828</v>
+        <v>0.0001631291188535849</v>
       </c>
       <c r="T17">
-        <v>0.002627976293794828</v>
+        <v>0.0001631291188535849</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.06561933333333334</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H18">
-        <v>0.196858</v>
+        <v>0.043031</v>
       </c>
       <c r="I18">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457053</v>
       </c>
       <c r="J18">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457052</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1553,28 +1553,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.245191</v>
+        <v>0.3019996666666667</v>
       </c>
       <c r="N18">
-        <v>0.735573</v>
+        <v>0.905999</v>
       </c>
       <c r="O18">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="P18">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="Q18">
-        <v>0.01608926995933333</v>
+        <v>0.004331782552111111</v>
       </c>
       <c r="R18">
-        <v>0.144803429634</v>
+        <v>0.038986042969</v>
       </c>
       <c r="S18">
-        <v>0.00045712146783427</v>
+        <v>8.450425683804007E-05</v>
       </c>
       <c r="T18">
-        <v>0.00045712146783427</v>
+        <v>8.450425683804007E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.06561933333333334</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H19">
-        <v>0.196858</v>
+        <v>0.043031</v>
       </c>
       <c r="I19">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457053</v>
       </c>
       <c r="J19">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457052</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.9476490000000001</v>
+        <v>0.2807033333333333</v>
       </c>
       <c r="N19">
-        <v>2.842947</v>
+        <v>0.8421099999999999</v>
       </c>
       <c r="O19">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449175</v>
       </c>
       <c r="P19">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449176</v>
       </c>
       <c r="Q19">
-        <v>0.06218409561400001</v>
+        <v>0.004026315045555555</v>
       </c>
       <c r="R19">
-        <v>0.5596568605260001</v>
+        <v>0.03623683540999999</v>
       </c>
       <c r="S19">
-        <v>0.001766747971465829</v>
+        <v>7.854520780473481E-05</v>
       </c>
       <c r="T19">
-        <v>0.001766747971465829</v>
+        <v>7.854520780473481E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.079636333333333</v>
+        <v>1.483811333333333</v>
       </c>
       <c r="H20">
-        <v>6.238909</v>
+        <v>4.451434</v>
       </c>
       <c r="I20">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764967</v>
       </c>
       <c r="J20">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764966</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.455462333333333</v>
+        <v>0.978762</v>
       </c>
       <c r="N20">
-        <v>4.366387</v>
+        <v>2.936286</v>
       </c>
       <c r="O20">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="P20">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="Q20">
-        <v>3.026832350198111</v>
+        <v>1.452298148236</v>
       </c>
       <c r="R20">
-        <v>27.24149115178299</v>
+        <v>13.070683334124</v>
       </c>
       <c r="S20">
-        <v>0.08599706825157558</v>
+        <v>0.02833137957585942</v>
       </c>
       <c r="T20">
-        <v>0.08599706825157559</v>
+        <v>0.02833137957585942</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.079636333333333</v>
+        <v>1.483811333333333</v>
       </c>
       <c r="H21">
-        <v>6.238909</v>
+        <v>4.451434</v>
       </c>
       <c r="I21">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764967</v>
       </c>
       <c r="J21">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764966</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1745,22 +1745,22 @@
         <v>0.312473</v>
       </c>
       <c r="O21">
-        <v>0.02139798360848153</v>
+        <v>0.0406458950147437</v>
       </c>
       <c r="P21">
-        <v>0.02139798360848154</v>
+        <v>0.04064589501474371</v>
       </c>
       <c r="Q21">
-        <v>0.2166100679952222</v>
+        <v>0.1545503262535556</v>
       </c>
       <c r="R21">
-        <v>1.949490611957</v>
+        <v>1.390952936282</v>
       </c>
       <c r="S21">
-        <v>0.006154232757603615</v>
+        <v>0.003014962156345643</v>
       </c>
       <c r="T21">
-        <v>0.006154232757603617</v>
+        <v>0.003014962156345642</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.079636333333333</v>
+        <v>1.483811333333333</v>
       </c>
       <c r="H22">
-        <v>6.238909</v>
+        <v>4.451434</v>
       </c>
       <c r="I22">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764967</v>
       </c>
       <c r="J22">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764966</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.7055843333333334</v>
+        <v>0.3139526666666667</v>
       </c>
       <c r="N22">
-        <v>2.116753</v>
+        <v>0.9418580000000001</v>
       </c>
       <c r="O22">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="P22">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="Q22">
-        <v>1.467358815830778</v>
+        <v>0.4658465249302223</v>
       </c>
       <c r="R22">
-        <v>13.206229342477</v>
+        <v>4.192618724372</v>
       </c>
       <c r="S22">
-        <v>0.04168997210112786</v>
+        <v>0.009087717104042253</v>
       </c>
       <c r="T22">
-        <v>0.04168997210112787</v>
+        <v>0.009087717104042251</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.079636333333333</v>
+        <v>1.483811333333333</v>
       </c>
       <c r="H23">
-        <v>6.238909</v>
+        <v>4.451434</v>
       </c>
       <c r="I23">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764967</v>
       </c>
       <c r="J23">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764966</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.409595</v>
+        <v>0.5829876666666666</v>
       </c>
       <c r="N23">
-        <v>4.228785</v>
+        <v>1.748963</v>
       </c>
       <c r="O23">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="P23">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="Q23">
-        <v>2.931444977285</v>
+        <v>0.8650437069935555</v>
       </c>
       <c r="R23">
-        <v>26.383004795565</v>
+        <v>7.785393362941999</v>
       </c>
       <c r="S23">
-        <v>0.08328696294355931</v>
+        <v>0.01687524124595963</v>
       </c>
       <c r="T23">
-        <v>0.08328696294355931</v>
+        <v>0.01687524124595963</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,14 +1892,14 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
       <c r="E24">
         <v>3</v>
       </c>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.079636333333333</v>
+        <v>1.483811333333333</v>
       </c>
       <c r="H24">
-        <v>6.238909</v>
+        <v>4.451434</v>
       </c>
       <c r="I24">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764967</v>
       </c>
       <c r="J24">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764966</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1925,28 +1925,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.245191</v>
+        <v>0.3019996666666667</v>
       </c>
       <c r="N24">
-        <v>0.735573</v>
+        <v>0.905999</v>
       </c>
       <c r="O24">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="P24">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="Q24">
-        <v>0.5099081122063334</v>
+        <v>0.4481105280628889</v>
       </c>
       <c r="R24">
-        <v>4.589173009857</v>
+        <v>4.032994752566</v>
       </c>
       <c r="S24">
-        <v>0.01448729154905789</v>
+        <v>0.008741723920745138</v>
       </c>
       <c r="T24">
-        <v>0.01448729154905789</v>
+        <v>0.008741723920745138</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,13 +1954,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.079636333333333</v>
+        <v>1.483811333333333</v>
       </c>
       <c r="H25">
-        <v>6.238909</v>
+        <v>4.451434</v>
       </c>
       <c r="I25">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764967</v>
       </c>
       <c r="J25">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764966</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.9476490000000001</v>
+        <v>0.2807033333333333</v>
       </c>
       <c r="N25">
-        <v>2.842947</v>
+        <v>0.8421099999999999</v>
       </c>
       <c r="O25">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449175</v>
       </c>
       <c r="P25">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449176</v>
       </c>
       <c r="Q25">
-        <v>1.970765291647</v>
+        <v>0.4165107873044444</v>
       </c>
       <c r="R25">
-        <v>17.736887624823</v>
+        <v>3.74859708574</v>
       </c>
       <c r="S25">
-        <v>0.05599254193332201</v>
+        <v>0.008125277324697587</v>
       </c>
       <c r="T25">
-        <v>0.05599254193332201</v>
+        <v>0.008125277324697585</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,10 +2016,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -2031,16 +2031,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.06028266666666667</v>
+        <v>0.06394066666666666</v>
       </c>
       <c r="H26">
-        <v>0.180848</v>
+        <v>0.191822</v>
       </c>
       <c r="I26">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="J26">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.455462333333333</v>
+        <v>0.978762</v>
       </c>
       <c r="N26">
-        <v>4.366387</v>
+        <v>2.936286</v>
       </c>
       <c r="O26">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="P26">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="Q26">
-        <v>0.08773915068622222</v>
+        <v>0.06258269478799999</v>
       </c>
       <c r="R26">
-        <v>0.7896523561759999</v>
+        <v>0.563244253092</v>
       </c>
       <c r="S26">
-        <v>0.002492807283959574</v>
+        <v>0.001220860938969444</v>
       </c>
       <c r="T26">
-        <v>0.002492807283959574</v>
+        <v>0.001220860938969443</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,10 +2078,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -2093,16 +2093,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.06028266666666667</v>
+        <v>0.06394066666666666</v>
       </c>
       <c r="H27">
-        <v>0.180848</v>
+        <v>0.191822</v>
       </c>
       <c r="I27">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="J27">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2117,22 +2117,22 @@
         <v>0.312473</v>
       </c>
       <c r="O27">
-        <v>0.02139798360848153</v>
+        <v>0.0406458950147437</v>
       </c>
       <c r="P27">
-        <v>0.02139798360848154</v>
+        <v>0.04064589501474371</v>
       </c>
       <c r="Q27">
-        <v>0.006278901900444445</v>
+        <v>0.00665991064511111</v>
       </c>
       <c r="R27">
-        <v>0.056510117104</v>
+        <v>0.059939195806</v>
       </c>
       <c r="S27">
-        <v>0.0001783934796527885</v>
+        <v>0.0001299212951948819</v>
       </c>
       <c r="T27">
-        <v>0.0001783934796527885</v>
+        <v>0.0001299212951948819</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,10 +2140,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -2155,46 +2155,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.06028266666666667</v>
+        <v>0.06394066666666666</v>
       </c>
       <c r="H28">
-        <v>0.180848</v>
+        <v>0.191822</v>
       </c>
       <c r="I28">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="J28">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.7055843333333334</v>
+        <v>0.3139526666666667</v>
       </c>
       <c r="N28">
-        <v>2.116753</v>
+        <v>0.9418580000000001</v>
       </c>
       <c r="O28">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="P28">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="Q28">
-        <v>0.04253450517155556</v>
+        <v>0.02007434280844445</v>
       </c>
       <c r="R28">
-        <v>0.382810546544</v>
+        <v>0.180669085276</v>
       </c>
       <c r="S28">
-        <v>0.00120847219835147</v>
+        <v>0.0003916095510641274</v>
       </c>
       <c r="T28">
-        <v>0.00120847219835147</v>
+        <v>0.0003916095510641273</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,10 +2202,10 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
@@ -2217,16 +2217,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.06028266666666667</v>
+        <v>0.06394066666666666</v>
       </c>
       <c r="H29">
-        <v>0.180848</v>
+        <v>0.191822</v>
       </c>
       <c r="I29">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="J29">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.409595</v>
+        <v>0.5829876666666666</v>
       </c>
       <c r="N29">
-        <v>4.228785</v>
+        <v>1.748963</v>
       </c>
       <c r="O29">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="P29">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="Q29">
-        <v>0.08497414552000002</v>
+        <v>0.0372766200651111</v>
       </c>
       <c r="R29">
-        <v>0.7647673096800001</v>
+        <v>0.335489580586</v>
       </c>
       <c r="S29">
-        <v>0.002414249137856765</v>
+        <v>0.0007271909515635788</v>
       </c>
       <c r="T29">
-        <v>0.002414249137856765</v>
+        <v>0.0007271909515635789</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,13 +2264,13 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2279,16 +2279,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.06028266666666667</v>
+        <v>0.06394066666666666</v>
       </c>
       <c r="H30">
-        <v>0.180848</v>
+        <v>0.191822</v>
       </c>
       <c r="I30">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="J30">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -2297,28 +2297,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>0.245191</v>
+        <v>0.3019996666666667</v>
       </c>
       <c r="N30">
-        <v>0.735573</v>
+        <v>0.905999</v>
       </c>
       <c r="O30">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="P30">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="Q30">
-        <v>0.01478076732266667</v>
+        <v>0.01931006001977778</v>
       </c>
       <c r="R30">
-        <v>0.133026905904</v>
+        <v>0.173790540178</v>
       </c>
       <c r="S30">
-        <v>0.0004199448496626607</v>
+        <v>0.0003766999501565504</v>
       </c>
       <c r="T30">
-        <v>0.0004199448496626607</v>
+        <v>0.0003766999501565504</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,13 +2326,13 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2341,16 +2341,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.06028266666666667</v>
+        <v>0.06394066666666666</v>
       </c>
       <c r="H31">
-        <v>0.180848</v>
+        <v>0.191822</v>
       </c>
       <c r="I31">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="J31">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.9476490000000001</v>
+        <v>0.2807033333333333</v>
       </c>
       <c r="N31">
-        <v>2.842947</v>
+        <v>0.8421099999999999</v>
       </c>
       <c r="O31">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449175</v>
       </c>
       <c r="P31">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449176</v>
       </c>
       <c r="Q31">
-        <v>0.05712680878400001</v>
+        <v>0.01794835826888888</v>
       </c>
       <c r="R31">
-        <v>0.514141279056</v>
+        <v>0.16153522442</v>
       </c>
       <c r="S31">
-        <v>0.001623062497554848</v>
+        <v>0.0003501359218126429</v>
       </c>
       <c r="T31">
-        <v>0.001623062497554848</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G32">
-        <v>0.6601659999999999</v>
-      </c>
-      <c r="H32">
-        <v>1.980498</v>
-      </c>
-      <c r="I32">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="J32">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>1.455462333333333</v>
-      </c>
-      <c r="N32">
-        <v>4.366387</v>
-      </c>
-      <c r="O32">
-        <v>0.2990078421312781</v>
-      </c>
-      <c r="P32">
-        <v>0.2990078421312781</v>
-      </c>
-      <c r="Q32">
-        <v>0.9608467467473332</v>
-      </c>
-      <c r="R32">
-        <v>8.647620720725998</v>
-      </c>
-      <c r="S32">
-        <v>0.02729916747913921</v>
-      </c>
-      <c r="T32">
-        <v>0.02729916747913921</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G33">
-        <v>0.6601659999999999</v>
-      </c>
-      <c r="H33">
-        <v>1.980498</v>
-      </c>
-      <c r="I33">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="J33">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="K33">
-        <v>2</v>
-      </c>
-      <c r="L33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M33">
-        <v>0.1041576666666667</v>
-      </c>
-      <c r="N33">
-        <v>0.312473</v>
-      </c>
-      <c r="O33">
-        <v>0.02139798360848153</v>
-      </c>
-      <c r="P33">
-        <v>0.02139798360848154</v>
-      </c>
-      <c r="Q33">
-        <v>0.06876135017266666</v>
-      </c>
-      <c r="R33">
-        <v>0.618852151554</v>
-      </c>
-      <c r="S33">
-        <v>0.001953618119444994</v>
-      </c>
-      <c r="T33">
-        <v>0.001953618119444994</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G34">
-        <v>0.6601659999999999</v>
-      </c>
-      <c r="H34">
-        <v>1.980498</v>
-      </c>
-      <c r="I34">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="J34">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>0.7055843333333334</v>
-      </c>
-      <c r="N34">
-        <v>2.116753</v>
-      </c>
-      <c r="O34">
-        <v>0.1449541112262631</v>
-      </c>
-      <c r="P34">
-        <v>0.1449541112262631</v>
-      </c>
-      <c r="Q34">
-        <v>0.4658027869993333</v>
-      </c>
-      <c r="R34">
-        <v>4.192225082994</v>
-      </c>
-      <c r="S34">
-        <v>0.01323418988261241</v>
-      </c>
-      <c r="T34">
-        <v>0.01323418988261242</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G35">
-        <v>0.6601659999999999</v>
-      </c>
-      <c r="H35">
-        <v>1.980498</v>
-      </c>
-      <c r="I35">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="J35">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>1.409595</v>
-      </c>
-      <c r="N35">
-        <v>4.228785</v>
-      </c>
-      <c r="O35">
-        <v>0.2895849309021662</v>
-      </c>
-      <c r="P35">
-        <v>0.2895849309021662</v>
-      </c>
-      <c r="Q35">
-        <v>0.93056669277</v>
-      </c>
-      <c r="R35">
-        <v>8.375100234930001</v>
-      </c>
-      <c r="S35">
-        <v>0.02643886351536676</v>
-      </c>
-      <c r="T35">
-        <v>0.02643886351536676</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G36">
-        <v>0.6601659999999999</v>
-      </c>
-      <c r="H36">
-        <v>1.980498</v>
-      </c>
-      <c r="I36">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="J36">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="K36">
-        <v>2</v>
-      </c>
-      <c r="L36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M36">
-        <v>0.245191</v>
-      </c>
-      <c r="N36">
-        <v>0.735573</v>
-      </c>
-      <c r="O36">
-        <v>0.05037164490001245</v>
-      </c>
-      <c r="P36">
-        <v>0.05037164490001245</v>
-      </c>
-      <c r="Q36">
-        <v>0.161866761706</v>
-      </c>
-      <c r="R36">
-        <v>1.456800855354</v>
-      </c>
-      <c r="S36">
-        <v>0.004598889315155269</v>
-      </c>
-      <c r="T36">
-        <v>0.004598889315155269</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G37">
-        <v>0.6601659999999999</v>
-      </c>
-      <c r="H37">
-        <v>1.980498</v>
-      </c>
-      <c r="I37">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="J37">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>0.9476490000000001</v>
-      </c>
-      <c r="N37">
-        <v>2.842947</v>
-      </c>
-      <c r="O37">
-        <v>0.1946834872317985</v>
-      </c>
-      <c r="P37">
-        <v>0.1946834872317985</v>
-      </c>
-      <c r="Q37">
-        <v>0.625605649734</v>
-      </c>
-      <c r="R37">
-        <v>5.630450847606</v>
-      </c>
-      <c r="S37">
-        <v>0.01777444058149596</v>
-      </c>
-      <c r="T37">
-        <v>0.01777444058149596</v>
+        <v>0.0003501359218126429</v>
       </c>
     </row>
   </sheetData>
